--- a/App/Controllers/Excel/Aluno.xlsx
+++ b/App/Controllers/Excel/Aluno.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>André Filipe Caeiro Nunes</t>
   </si>
@@ -275,13 +275,109 @@
   </si>
   <si>
     <t>190208021b</t>
+  </si>
+  <si>
+    <t>Rhianna  Hammond</t>
+  </si>
+  <si>
+    <t>190208024@gmail.com</t>
+  </si>
+  <si>
+    <t>RhiannaHammond123</t>
+  </si>
+  <si>
+    <t>190208024b</t>
+  </si>
+  <si>
+    <t>Kimberly Moore</t>
+  </si>
+  <si>
+    <t>190208025@gmail.com</t>
+  </si>
+  <si>
+    <t>KimberlyMoore123</t>
+  </si>
+  <si>
+    <t>190208025b</t>
+  </si>
+  <si>
+    <t>Daisy  Holland</t>
+  </si>
+  <si>
+    <t>190208026@gmail.com</t>
+  </si>
+  <si>
+    <t>DaisyHolland123</t>
+  </si>
+  <si>
+    <t>190208026b</t>
+  </si>
+  <si>
+    <t>Harley Cooper</t>
+  </si>
+  <si>
+    <t>190208027@gmail.com</t>
+  </si>
+  <si>
+    <t>HarleyCooper123</t>
+  </si>
+  <si>
+    <t>190208027b</t>
+  </si>
+  <si>
+    <t>Maria  Dawson</t>
+  </si>
+  <si>
+    <t>190208028@gmail.com</t>
+  </si>
+  <si>
+    <t>MariaDawson123</t>
+  </si>
+  <si>
+    <t>190208028b</t>
+  </si>
+  <si>
+    <t>Halima Holt</t>
+  </si>
+  <si>
+    <t>190208029@gmail.com</t>
+  </si>
+  <si>
+    <t>HalimaHolt123</t>
+  </si>
+  <si>
+    <t>190208029b</t>
+  </si>
+  <si>
+    <t>Natalie  Khan</t>
+  </si>
+  <si>
+    <t>190208030@gmail.com</t>
+  </si>
+  <si>
+    <t>NatalieKhan123</t>
+  </si>
+  <si>
+    <t>190208030b</t>
+  </si>
+  <si>
+    <t>Samantha Gardner</t>
+  </si>
+  <si>
+    <t>190208031@gmail.com</t>
+  </si>
+  <si>
+    <t>SamanthaGardner123</t>
+  </si>
+  <si>
+    <t>190208031b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -313,6 +409,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -328,16 +432,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -350,9 +451,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -360,6 +458,21 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -591,7 +704,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -608,7 +721,7 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -625,7 +738,7 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -636,13 +749,13 @@
       <c r="B4" s="2">
         <v>1.90208022E8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -659,7 +772,7 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -676,7 +789,7 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -693,7 +806,7 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -707,10 +820,10 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -727,7 +840,7 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -744,7 +857,7 @@
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -761,7 +874,7 @@
       <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -775,10 +888,10 @@
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -795,7 +908,7 @@
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -809,10 +922,10 @@
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -829,7 +942,7 @@
       <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -846,7 +959,7 @@
       <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -863,7 +976,7 @@
       <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -880,7 +993,7 @@
       <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -897,7 +1010,7 @@
       <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -911,10 +1024,10 @@
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -931,7 +1044,7 @@
       <c r="D21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -939,7 +1052,7 @@
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="8">
         <v>1.90208021E8</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -948,8 +1061,144 @@
       <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1.90208024E8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1.90208025E8</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1.90208026E8</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1.90208027E8</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1.90208028E8</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1.90208029E8</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1.9020803E8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1.90208031E8</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
